--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dhh-Ptch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dhh-Ptch1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.853892</v>
+        <v>0.29347</v>
       </c>
       <c r="H2">
-        <v>5.561676</v>
+        <v>0.8804099999999999</v>
       </c>
       <c r="I2">
-        <v>0.5711238486747862</v>
+        <v>0.1501202107524681</v>
       </c>
       <c r="J2">
-        <v>0.571123848674786</v>
+        <v>0.1501202107524681</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>5.793595666666667</v>
+        <v>5.411745</v>
       </c>
       <c r="N2">
-        <v>17.380787</v>
+        <v>16.235235</v>
       </c>
       <c r="O2">
-        <v>0.3620794979747173</v>
+        <v>0.2701007085902594</v>
       </c>
       <c r="P2">
-        <v>0.3620794979747173</v>
+        <v>0.2701007085902594</v>
       </c>
       <c r="Q2">
-        <v>10.740700657668</v>
+        <v>1.58818480515</v>
       </c>
       <c r="R2">
-        <v>96.66630591901202</v>
+        <v>14.29366324635</v>
       </c>
       <c r="S2">
-        <v>0.206792236409555</v>
+        <v>0.04054757529796073</v>
       </c>
       <c r="T2">
-        <v>0.206792236409555</v>
+        <v>0.04054757529796073</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.853892</v>
+        <v>0.29347</v>
       </c>
       <c r="H3">
-        <v>5.561676</v>
+        <v>0.8804099999999999</v>
       </c>
       <c r="I3">
-        <v>0.5711238486747862</v>
+        <v>0.1501202107524681</v>
       </c>
       <c r="J3">
-        <v>0.571123848674786</v>
+        <v>0.1501202107524681</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.518509000000001</v>
+        <v>4.518509</v>
       </c>
       <c r="N3">
         <v>13.555527</v>
       </c>
       <c r="O3">
-        <v>0.2823910339009808</v>
+        <v>0.2255192147212155</v>
       </c>
       <c r="P3">
-        <v>0.2823910339009807</v>
+        <v>0.2255192147212155</v>
       </c>
       <c r="Q3">
-        <v>8.376827687028001</v>
+        <v>1.32604683623</v>
       </c>
       <c r="R3">
-        <v>75.39144918325201</v>
+        <v>11.93442152607</v>
       </c>
       <c r="S3">
-        <v>0.1612802541127802</v>
+        <v>0.03385499204267999</v>
       </c>
       <c r="T3">
-        <v>0.1612802541127801</v>
+        <v>0.03385499204267998</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.853892</v>
+        <v>0.29347</v>
       </c>
       <c r="H4">
-        <v>5.561676</v>
+        <v>0.8804099999999999</v>
       </c>
       <c r="I4">
-        <v>0.5711238486747862</v>
+        <v>0.1501202107524681</v>
       </c>
       <c r="J4">
-        <v>0.571123848674786</v>
+        <v>0.1501202107524681</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.688789333333333</v>
+        <v>10.10577266666666</v>
       </c>
       <c r="N4">
-        <v>17.066368</v>
+        <v>30.317318</v>
       </c>
       <c r="O4">
-        <v>0.3555294681243018</v>
+        <v>0.504380076688525</v>
       </c>
       <c r="P4">
-        <v>0.3555294681243019</v>
+        <v>0.504380076688525</v>
       </c>
       <c r="Q4">
-        <v>10.546401034752</v>
+        <v>2.965741104486666</v>
       </c>
       <c r="R4">
-        <v>94.91760931276801</v>
+        <v>26.69166994038</v>
       </c>
       <c r="S4">
-        <v>0.203051358152451</v>
+        <v>0.07571764341182742</v>
       </c>
       <c r="T4">
-        <v>0.203051358152451</v>
+        <v>0.07571764341182742</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1.278734</v>
       </c>
       <c r="I5">
-        <v>0.1313121230922664</v>
+        <v>0.2180391153852712</v>
       </c>
       <c r="J5">
-        <v>0.1313121230922664</v>
+        <v>0.2180391153852712</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>5.793595666666667</v>
+        <v>5.411745</v>
       </c>
       <c r="N5">
-        <v>17.380787</v>
+        <v>16.235235</v>
       </c>
       <c r="O5">
-        <v>0.3620794979747173</v>
+        <v>0.2701007085902594</v>
       </c>
       <c r="P5">
-        <v>0.3620794979747173</v>
+        <v>0.2701007085902594</v>
       </c>
       <c r="Q5">
-        <v>2.469489253739778</v>
+        <v>2.30672744361</v>
       </c>
       <c r="R5">
-        <v>22.225403283658</v>
+        <v>20.76054699249</v>
       </c>
       <c r="S5">
-        <v>0.04754542760724211</v>
+        <v>0.05889251956595509</v>
       </c>
       <c r="T5">
-        <v>0.04754542760724211</v>
+        <v>0.05889251956595509</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.278734</v>
       </c>
       <c r="I6">
-        <v>0.1313121230922664</v>
+        <v>0.2180391153852712</v>
       </c>
       <c r="J6">
-        <v>0.1313121230922664</v>
+        <v>0.2180391153852712</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.518509000000001</v>
+        <v>4.518509</v>
       </c>
       <c r="N6">
         <v>13.555527</v>
       </c>
       <c r="O6">
-        <v>0.2823910339009808</v>
+        <v>0.2255192147212155</v>
       </c>
       <c r="P6">
-        <v>0.2823910339009807</v>
+        <v>0.2255192147212155</v>
       </c>
       <c r="Q6">
-        <v>1.925990362535334</v>
+        <v>1.925990362535333</v>
       </c>
       <c r="R6">
         <v>17.333913262818</v>
       </c>
       <c r="S6">
-        <v>0.03708136620375797</v>
+        <v>0.04917201008019487</v>
       </c>
       <c r="T6">
-        <v>0.03708136620375795</v>
+        <v>0.04917201008019486</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.278734</v>
       </c>
       <c r="I7">
-        <v>0.1313121230922664</v>
+        <v>0.2180391153852712</v>
       </c>
       <c r="J7">
-        <v>0.1313121230922664</v>
+        <v>0.2180391153852712</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.688789333333333</v>
+        <v>10.10577266666666</v>
       </c>
       <c r="N7">
-        <v>17.066368</v>
+        <v>30.317318</v>
       </c>
       <c r="O7">
-        <v>0.3555294681243018</v>
+        <v>0.504380076688525</v>
       </c>
       <c r="P7">
-        <v>0.3555294681243019</v>
+        <v>0.504380076688525</v>
       </c>
       <c r="Q7">
-        <v>2.424816113123555</v>
+        <v>4.307531701712444</v>
       </c>
       <c r="R7">
-        <v>21.823345018112</v>
+        <v>38.767785315412</v>
       </c>
       <c r="S7">
-        <v>0.04668532928126633</v>
+        <v>0.1099745857391213</v>
       </c>
       <c r="T7">
-        <v>0.04668532928126633</v>
+        <v>0.1099745857391213</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9659053333333333</v>
+        <v>1.235185333333333</v>
       </c>
       <c r="H8">
-        <v>2.897716</v>
+        <v>3.705556</v>
       </c>
       <c r="I8">
-        <v>0.2975640282329475</v>
+        <v>0.6318406738622607</v>
       </c>
       <c r="J8">
-        <v>0.2975640282329475</v>
+        <v>0.6318406738622606</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>5.793595666666667</v>
+        <v>5.411745</v>
       </c>
       <c r="N8">
-        <v>17.380787</v>
+        <v>16.235235</v>
       </c>
       <c r="O8">
-        <v>0.3620794979747173</v>
+        <v>0.2701007085902594</v>
       </c>
       <c r="P8">
-        <v>0.3620794979747173</v>
+        <v>0.2701007085902594</v>
       </c>
       <c r="Q8">
-        <v>5.596064953610223</v>
+        <v>6.68450805174</v>
       </c>
       <c r="R8">
-        <v>50.364584582492</v>
+        <v>60.16057246566</v>
       </c>
       <c r="S8">
-        <v>0.1077418339579202</v>
+        <v>0.1706606137263436</v>
       </c>
       <c r="T8">
-        <v>0.1077418339579202</v>
+        <v>0.1706606137263436</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9659053333333333</v>
+        <v>1.235185333333333</v>
       </c>
       <c r="H9">
-        <v>2.897716</v>
+        <v>3.705556</v>
       </c>
       <c r="I9">
-        <v>0.2975640282329475</v>
+        <v>0.6318406738622607</v>
       </c>
       <c r="J9">
-        <v>0.2975640282329475</v>
+        <v>0.6318406738622606</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.518509000000001</v>
+        <v>4.518509</v>
       </c>
       <c r="N9">
         <v>13.555527</v>
       </c>
       <c r="O9">
-        <v>0.2823910339009808</v>
+        <v>0.2255192147212155</v>
       </c>
       <c r="P9">
-        <v>0.2823910339009807</v>
+        <v>0.2255192147212155</v>
       </c>
       <c r="Q9">
-        <v>4.364451941814667</v>
+        <v>5.581196045334667</v>
       </c>
       <c r="R9">
-        <v>39.280067476332</v>
+        <v>50.230764408012</v>
       </c>
       <c r="S9">
-        <v>0.08402941358444269</v>
+        <v>0.1424922125983407</v>
       </c>
       <c r="T9">
-        <v>0.08402941358444266</v>
+        <v>0.1424922125983406</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9659053333333333</v>
+        <v>1.235185333333333</v>
       </c>
       <c r="H10">
-        <v>2.897716</v>
+        <v>3.705556</v>
       </c>
       <c r="I10">
-        <v>0.2975640282329475</v>
+        <v>0.6318406738622607</v>
       </c>
       <c r="J10">
-        <v>0.2975640282329475</v>
+        <v>0.6318406738622606</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.688789333333333</v>
+        <v>10.10577266666666</v>
       </c>
       <c r="N10">
-        <v>17.066368</v>
+        <v>30.317318</v>
       </c>
       <c r="O10">
-        <v>0.3555294681243018</v>
+        <v>0.504380076688525</v>
       </c>
       <c r="P10">
-        <v>0.3555294681243019</v>
+        <v>0.504380076688525</v>
       </c>
       <c r="Q10">
-        <v>5.494831957276444</v>
+        <v>12.48250217986755</v>
       </c>
       <c r="R10">
-        <v>49.453487615488</v>
+        <v>112.342519618808</v>
       </c>
       <c r="S10">
-        <v>0.1057927806905845</v>
+        <v>0.3186878475375764</v>
       </c>
       <c r="T10">
-        <v>0.1057927806905846</v>
+        <v>0.3186878475375763</v>
       </c>
     </row>
   </sheetData>
